--- a/Scraping23/src/test/resources/excelsheets/pcosrecipeEliminated.xlsx
+++ b/Scraping23/src/test/resources/excelsheets/pcosrecipeEliminated.xlsx
@@ -1,20 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="pcos" r:id="rId5" sheetId="2"/>
+    <sheet name="pcos" r:id="rId3" sheetId="1"/>
   </sheets>
-  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="245">
   <si>
     <t>Recipe ID</t>
   </si>
@@ -90,7 +88,7 @@
 Serve the minty couscous chilled.</t>
   </si>
   <si>
-    <t>HyperTension</t>
+    <t>pcos</t>
   </si>
   <si>
     <t>https://www.tarladalal.com/minty-couscous-7445r</t>
@@ -134,7 +132,7 @@
     <t>https://www.tarladalal.com/methi-bajra-paratha-42785r</t>
   </si>
   <si>
-    <t>dahi</t>
+    <t>curd</t>
   </si>
   <si>
     <t>Recipe# 22444</t>
@@ -144,6 +142,9 @@
   </si>
   <si>
     <t>Snack</t>
+  </si>
+  <si>
+    <t>Vegetarian</t>
   </si>
   <si>
     <t xml:space="preserve">2 cups whole wheat flour (gehun ka atta)
@@ -295,6 +296,43 @@
     <t>sugar</t>
   </si>
   <si>
+    <t>Recipe# 763</t>
+  </si>
+  <si>
+    <t>Anti- Aging Breakfast Platter</t>
+  </si>
+  <si>
+    <t>Veg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 tbsp sprouted moong (whole green gram)
+1/4 cup low fat paneer (cottage cheese) cubes
+1/4 tsp chilli powder
+1/4 tsp cumin seeds (jeera) powder
+1/4 tsp rock salt (sendha namak)
+6 oranges segments
+1/2 cup watermelon (tarbuj) balls
+1/4 cup green grapes
+2 dates (khajur)
+4 walnuts (akhrot)
+5 almonds (badam)
+</t>
+  </si>
+  <si>
+    <t>0 mins</t>
+  </si>
+  <si>
+    <t>For anti- aging breakfast platter
+To make anti- aging breakfast platter, combine the sprouted moong, paneer, chilli powder, cumin seeds powder and rock salt in a bowl and mix well.
+Arrange all the ingredients on a platter and serve immediately.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/anti--aging-breakfast-platter-763r</t>
+  </si>
+  <si>
+    <t>paneer</t>
+  </si>
+  <si>
     <t>Recipe# 41719</t>
   </si>
   <si>
@@ -305,9 +343,6 @@
 1 1/2 tsp chia seeds or falooda seeds (subza)
 2 tbsp powdered sugar
 </t>
-  </si>
-  <si>
-    <t>0 mins</t>
   </si>
   <si>
     <t>Combine the chia seeds and ¼ cup water in a small bowl, mix well and keep aside for 30 minutes.
@@ -403,10 +438,45 @@
     <t>https://www.tarladalal.com/poha-nachni-handvo-22308r</t>
   </si>
   <si>
+    <t>Recipe# 38991</t>
+  </si>
+  <si>
+    <t>Moong Dal and Spinach Idli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 cup yellow moong dal (split yellow gram) , soaked for 3 hours and drained
+3/4 cup blanched and roughly chopped spinach
+3 green chillies , roughly chopped
+1 tbsp fresh low-fat curds
+salt to taste
+1/2 tsp fruit salt
+1/4 tsp oil for greasing
+sambhar
+healthy coconut chutney
+</t>
+  </si>
+  <si>
+    <t>12 mins</t>
+  </si>
+  <si>
+    <t>Combine the yellow moong dal , spinach and green chillies and blend in a mixer to a smooth paste without using any water.
+Transfer the mixture into a bowl, add the curds and salt and mix well.
+Just before steaming, add the fruit salt to the batter and pour 2 tsp water over it.
+When the bubbles form, mix gently.
+Grease the idli moulds using oil, put spoonfuls of the batter into idli moulds and steam in a steamer for 10 to 12 minutes or till the idlis are cooked.
+Cool slightly, demould and serve immediately with sambhar and healthy coconut chutney.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/moong-dal-and-spinach-idli-38991r</t>
+  </si>
+  <si>
     <t>Recipe# 38987</t>
   </si>
   <si>
     <t>Oats Upma ( Breakfast Recipes)</t>
+  </si>
+  <si>
+    <t>Jain</t>
   </si>
   <si>
     <t xml:space="preserve">2 cups quick cooking rolled oats
@@ -440,6 +510,44 @@
     <t>https://www.tarladalal.com/oats-upma---breakfast-recipes-38987r</t>
   </si>
   <si>
+    <t>Recipe# 32997</t>
+  </si>
+  <si>
+    <t>Paneer Tamatar Paratha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 1/2 cups whole wheat flour (gehun ka atta)
+salt to taste
+1 1/2 tsp oil for kneading and cooking
+whole wheat flour (gehun ka atta) for rolling
+1/2 cup crumbled low fat paneer (cottage cheese)
+3/4 cup deseeded and chopped tomatoes
+1/4 cup chopped yellow capsicum
+1 tsp finely chopped green chillies
+2 tbsp finely chopped coriander (dhania)
+salt to taste
+</t>
+  </si>
+  <si>
+    <t>20 mins</t>
+  </si>
+  <si>
+    <t>For the chapatis
+Combine all the ingredients in a deep bowl and knead into a semi-soft dough using enough water.
+Cover the dough with a lid and keep aside for 15 minutes.
+Knead again using ¼ tsp oil till smooth.
+How to proceed
+To make paneer tamatar paratha, divide the stuffing into 10 equal portions and keep aside.
+Divide the dough into 10 equal portions.
+Roll a portion of the dough into a 150 mm. (6”) diameter circle using a little wheat flour for rolling. Spread a portion of the stuffing on half of the circle and fold it over to make a semi-circle.
+Heat a non-stick tava (griddle) and cook the paratha, using ¼ tsp of oil, till golden brown spots appear on both the sides.
+Repeat steps 3 and 4 to make 9 more parathas.
+Serve the paneer tamatar paratha immediately.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/paneer-tamatar-paratha-32997r</t>
+  </si>
+  <si>
     <t>Recipe# 22575</t>
   </si>
   <si>
@@ -595,6 +703,40 @@
     <t>https://www.tarladalal.com/oats-idli-38475r</t>
   </si>
   <si>
+    <t>Recipe# 4631</t>
+  </si>
+  <si>
+    <t>Masoor Dal and Paneer Soup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4 cup masoor (split red lentil) dal , washed and drained
+1/4 cup low fat paneer (cottage cheese) cubes
+2 tsp oil
+1/2 cup sliced onions
+1/2 tsp crushed garlic (lehsun)
+1/4 tsp chilli powder
+3/4 cup chopped tomatoes
+salt to taste
+2 tsp lemon juice
+</t>
+  </si>
+  <si>
+    <t>For masoor dal and paneer soup
+To make masoor dal and paneer soup, heat 1 tsp of oil in a pressure cooker, add the onions and sauté on a medium flame for 1 to 2 minutes.
+Add the garlic and chilli powder and sauté on a medium flame for a few seconds.
+Add the masoor dal, tomatoes and 2½ cups of water, mix well and pressure cook for 3 whistles.
+Allow the steam to escape before opening the lid. Cool slightly and blend in a mixer to a smooth purée.
+Transfer the purée into a deep non-stick pan, add the salt and mix well.
+Bring to a boil and simmer for 2 minutes.
+Meanwhile, heat the remaining 1 tsp of oil in a small broad pan.
+Add the paneer cubes and saute on a medium flame for 1 minute.
+Add the sauteed paneer cubes and lemon juice to the soup and mix gently.
+Serve the masoor dal and paneer soup immediately.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/masoor-dal-and-paneer-soup-4631r</t>
+  </si>
+  <si>
     <t>Recipe# 41565</t>
   </si>
   <si>
@@ -625,6 +767,53 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/matki-sabzi-41565r</t>
+  </si>
+  <si>
+    <t>Recipe# 35092</t>
+  </si>
+  <si>
+    <t>Aliv Paratha, Halim Vegetable Paratha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 cup whole wheat flour (gehun ka atta)
+1 1/2 tbsp garden cress seeds powder , refer handy tip
+salt to taste
+1 tsp oil
+1/2 cup finely chopped red capsicum
+1/2 cup finely chopped yellow capsicum
+1/2 cup finely chopped carrot
+1/2 cup finely chopped spring onions whites
+1/4 cup finely chopped coriander (dhania)
+1/2 cup crumbled low fat paneer (cottage cheese)
+1 tsp chilli powder
+salt to taste
+whole wheat flour (gehun ka atta) for rolling
+2 1/2 tsp oil for cooking
+</t>
+  </si>
+  <si>
+    <t>30 mins</t>
+  </si>
+  <si>
+    <t>For the dough
+Combine all the ingredients in a deep bowl and knead into a soft dough using enough water. Keep aside.
+For the stuffing
+Heat the oil in a broad non-stick pan, add the mixed vegetables and sauté on a high flame for 2 minutes.
+Add the coriander, paneer, chilli powder and salt and mix well.
+Cool slightly and divide the stuffing into 10 equal portions. Keep aside.
+How to proceed
+Divide the dough into 10 equal portions.
+Roll a portion of the dough into a 125 mm. (5”) diameter thin circle using wheat flour for rolling.
+Put ¼ cup of the stuffing on one half of the roti and fold to make a semi-circle.
+Seal the edges so the stuffing does not spill out.
+Heat a non-stick tava (griddle) and cook the paratha, using ¼ tsp oil, till it turns golden brown in colour from both the sides.
+Repeat steps 2 to 5 to make 9 more parathas.
+Serve immediately.
+Handy tip:
+Blend 1 tbsp of garden cress seeds in a mixer to get 1½ tbsp of garden cress seeds powder.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aliv-paratha-halim-vegetable-paratha-35092r</t>
   </si>
   <si>
     <t>Recipe# 3546</t>
@@ -712,9 +901,6 @@
 </t>
   </si>
   <si>
-    <t>20 mins</t>
-  </si>
-  <si>
     <t>Combine the orange juice and sugar in a small non-stick pan, mix well and cook on a medium flame for 5 minutes, while stirring occasionally. Keep aside.
 Combine the orange segments, grapefruit segments and mint leaves along with the prepared orange-sugar mixture in a deep bowl, mix well and refrigerate for 1 hour.
 Serve chilled.</t>
@@ -752,6 +938,34 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/moong-soup-with-paneer-how-to-make-moong-soup-358r</t>
+  </si>
+  <si>
+    <t>Recipe# 38985</t>
+  </si>
+  <si>
+    <t>Herbed Paneer Paratha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4 cup finely chopped dill leaves
+1/4 cup finely chopped mint leaves (phudina)
+1/4 cup finely chopped coriander (dhania)
+1/2 cup grated paneer (cottage cheese)
+2 tsp finely chopped green chillies
+salt to taste
+4 semi-cooked whole wheat chapatis
+2 tsp oil for cooking
+fresh curd
+</t>
+  </si>
+  <si>
+    <t>Divide the stuffing into 4 equal portions and keep aside.
+Place one semi-cooked chapati on a clean dry surface, place 1 portion of the stuffing on one half of the chapati and fold it over to make a semi-circle.
+Heat a non-stick tava (griddle) and cook the paratha, using ½ tsp of oil, till it turns golden brown in colour from both sides.
+Repeat with the remaining chapatis and stuffing to make 3 more parathas.
+Serve hot with fresh curds.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/herbed-paneer-paratha-38985r</t>
   </si>
   <si>
     <t>Recipe# 22269</t>
@@ -811,6 +1025,31 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/papaya-green-apple-and-orange-smoothie-39882r</t>
+  </si>
+  <si>
+    <t>Recipe# 4629</t>
+  </si>
+  <si>
+    <t>Spinach, Paneer and Dal Soup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cups finely chopped spinach (palak)
+3/4 cup low fat paneer (cottage cheese) cubes
+1/2 cup yellow moong dal (split yellow gram) , washed and drained
+3/4 cup finely chopped onions
+2 tsp low fat butter
+salt and to taste
+</t>
+  </si>
+  <si>
+    <t>For spinach, paneer and dal soup
+To make spinach, paneer and dal soup, combine the yellow moong dal, spinach, onions and 6 cups of water in a deep non-stick pan, mix well and cook on a medium flame for 4 to 5 minutes or till moong dal turns soft.
+Allow it to cool completely and blend the spinach mixture (along with the water) in a mixer to a smooth purée.
+Transfer the purée into a deep non-stick pan, add the butter, salt, pepper and paneer, mix well and bring to a boil.
+Serve the spinach, paneer and dal soup hot.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/spinach-paneer-and-dal-soup-4629r</t>
   </si>
   <si>
     <t>Recipe# 41080</t>
@@ -1179,13 +1418,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1194,244 +1434,32 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <a:themeElements>
-    <a:clrScheme name="Sheets">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4285F4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="EA4335"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="FBBC04"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="34A853"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="FF6D01"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="46BDC6"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="1155CC"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="1155CC"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Sheets">
-      <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
@@ -1556,26 +1584,26 @@
         <v>32</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I4" s="0"/>
       <c r="J4" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L4" t="s" s="0">
         <v>29</v>
@@ -1583,10 +1611,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>32</v>
@@ -1595,23 +1623,23 @@
         <v>15</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s" s="0">
         <v>17</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5" s="0"/>
       <c r="J5" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L5" t="s" s="0">
         <v>29</v>
@@ -1619,179 +1647,179 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s" s="0">
         <v>17</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" s="0"/>
       <c r="J6" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I7" s="0"/>
       <c r="J7" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F8" t="s" s="0">
         <v>17</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I8" s="0"/>
       <c r="J8" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I9" s="0"/>
       <c r="J9" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I10" s="0"/>
       <c r="J10" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L10" t="s" s="0">
         <v>29</v>
@@ -1799,71 +1827,71 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>14</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I11" s="0"/>
       <c r="J11" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L11" t="s" s="0">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I12" s="0"/>
       <c r="J12" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K12" t="s" s="0">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L12" t="s" s="0">
         <v>29</v>
@@ -1871,46 +1899,46 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F13" t="s" s="0">
         <v>17</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I13" s="0"/>
       <c r="J13" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K13" t="s" s="0">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L13" t="s" s="0">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>14</v>
@@ -1919,59 +1947,59 @@
         <v>15</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I14" s="0"/>
       <c r="J14" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K14" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L14" t="s" s="0">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s" s="0">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H15" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I15" s="0"/>
       <c r="J15" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K15" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L15" t="s" s="0">
         <v>29</v>
@@ -1979,107 +2007,107 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="H16" t="s" s="0">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="I16" s="0"/>
       <c r="J16" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K16" t="s" s="0">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="L16" t="s" s="0">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s" s="0">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="H17" t="s" s="0">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I17" s="0"/>
       <c r="J17" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K17" t="s" s="0">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="L17" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F18" t="s" s="0">
         <v>17</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="I18" s="0"/>
       <c r="J18" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K18" t="s" s="0">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="L18" t="s" s="0">
         <v>29</v>
@@ -2087,35 +2115,35 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s" s="0">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="H19" t="s" s="0">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I19" s="0"/>
       <c r="J19" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K19" t="s" s="0">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="L19" t="s" s="0">
         <v>29</v>
@@ -2123,82 +2151,82 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s" s="0">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H20" t="s" s="0">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I20" s="0"/>
       <c r="J20" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K20" t="s" s="0">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L20" t="s" s="0">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="G21" t="s" s="0">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="H21" t="s" s="0">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I21" s="0"/>
       <c r="J21" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K21" t="s" s="0">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L21" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>14</v>
@@ -2207,59 +2235,59 @@
         <v>15</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="G22" t="s" s="0">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="H22" t="s" s="0">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="I22" s="0"/>
       <c r="J22" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K22" t="s" s="0">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L22" t="s" s="0">
-        <v>29</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F23" t="s" s="0">
         <v>17</v>
       </c>
       <c r="G23" t="s" s="0">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="H23" t="s" s="0">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I23" s="0"/>
       <c r="J23" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K23" t="s" s="0">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L23" t="s" s="0">
         <v>29</v>
@@ -2267,35 +2295,35 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F24" t="s" s="0">
         <v>17</v>
       </c>
       <c r="G24" t="s" s="0">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="H24" t="s" s="0">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="I24" s="0"/>
       <c r="J24" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K24" t="s" s="0">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L24" t="s" s="0">
         <v>29</v>
@@ -2303,179 +2331,179 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="G25" t="s" s="0">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H25" t="s" s="0">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I25" s="0"/>
       <c r="J25" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K25" t="s" s="0">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L25" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="G26" t="s" s="0">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="H26" t="s" s="0">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I26" s="0"/>
       <c r="J26" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K26" t="s" s="0">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L26" t="s" s="0">
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="D27" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F27" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G27" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="G27" t="s" s="0">
-        <v>60</v>
-      </c>
       <c r="H27" t="s" s="0">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I27" s="0"/>
       <c r="J27" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K27" t="s" s="0">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L27" t="s" s="0">
-        <v>29</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F28" t="s" s="0">
         <v>17</v>
       </c>
       <c r="G28" t="s" s="0">
-        <v>171</v>
+        <v>98</v>
       </c>
       <c r="H28" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I28" s="0"/>
       <c r="J28" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K28" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L28" t="s" s="0">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="D29" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G29" t="s" s="0">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H29" t="s" s="0">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I29" s="0"/>
       <c r="J29" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K29" t="s" s="0">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L29" t="s" s="0">
         <v>29</v>
@@ -2483,71 +2511,71 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F30" t="s" s="0">
         <v>17</v>
       </c>
       <c r="G30" t="s" s="0">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="H30" t="s" s="0">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I30" s="0"/>
       <c r="J30" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K30" t="s" s="0">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L30" t="s" s="0">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F31" t="s" s="0">
         <v>17</v>
       </c>
       <c r="G31" t="s" s="0">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="H31" t="s" s="0">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="I31" s="0"/>
       <c r="J31" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K31" t="s" s="0">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L31" t="s" s="0">
         <v>29</v>
@@ -2555,109 +2583,361 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D32" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F32" t="s" s="0">
         <v>17</v>
       </c>
       <c r="G32" t="s" s="0">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="H32" t="s" s="0">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I32" s="0"/>
       <c r="J32" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K32" t="s" s="0">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L32" t="s" s="0">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F33" t="s" s="0">
         <v>17</v>
       </c>
       <c r="G33" t="s" s="0">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="H33" t="s" s="0">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="I33" s="0"/>
       <c r="J33" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K33" t="s" s="0">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L33" t="s" s="0">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D34" t="s" s="0">
         <v>15</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G34" t="s" s="0">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="H34" t="s" s="0">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="I34" s="0"/>
       <c r="J34" t="s" s="0">
         <v>20</v>
       </c>
       <c r="K34" t="s" s="0">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L34" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="F35" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G35" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="H35" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="I35" s="0"/>
+      <c r="J35" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K35" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="L35" t="s" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="F36" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H36" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="I36" s="0"/>
+      <c r="J36" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K36" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="L36" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="F37" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G37" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="H37" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="I37" s="0"/>
+      <c r="J37" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K37" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="L37" t="s" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="F38" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G38" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="H38" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="I38" s="0"/>
+      <c r="J38" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K38" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="L38" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="F39" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G39" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H39" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="I39" s="0"/>
+      <c r="J39" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K39" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="L39" t="s" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="F40" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G40" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H40" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="I40" s="0"/>
+      <c r="J40" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K40" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="L40" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="F41" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G41" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="H41" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="I41" s="0"/>
+      <c r="J41" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="K41" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="L41" t="s" s="0">
         <v>29</v>
       </c>
     </row>
